--- a/documents/productos Notho.xlsx
+++ b/documents/productos Notho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgezan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKNEW\Nothopack\Nothopack\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Trozo</t>
   </si>
@@ -51,12 +51,39 @@
   </si>
   <si>
     <t>Producto</t>
+  </si>
+  <si>
+    <t>Aserrable Largo</t>
+  </si>
+  <si>
+    <t>Aserrable Corto</t>
+  </si>
+  <si>
+    <t>Lena Industrial</t>
+  </si>
+  <si>
+    <t>Madera Tablero</t>
+  </si>
+  <si>
+    <t>Saw-log (large)</t>
+  </si>
+  <si>
+    <t>Saw-log (small)</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Industrial firewood</t>
+  </si>
+  <si>
+    <t>Residual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,18 +395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E8"/>
+  <dimension ref="B4:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -387,7 +415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -401,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -415,7 +443,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -429,7 +457,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -441,6 +469,113 @@
       </c>
       <c r="E8">
         <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>3.3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2.44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1.22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
